--- a/Test Cases Собаседник.xlsx
+++ b/Test Cases Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="316">
   <si>
     <t>Test case id</t>
   </si>
@@ -324,19 +324,227 @@
     <t>FOOT - 001</t>
   </si>
   <si>
+    <t>Работоспособность формы подписки на рассылку</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность формы, при заполнении корректного "Email address"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть сайт "Собаседник"
+2. Футер отображается </t>
+  </si>
+  <si>
+    <t>Футер / Форма "Подпишитесь на рассылку лучших фотографий"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма "Подпишитесь на рассылку лучших фотографий" отображается в футере
+2. Ввести валидный email в поле "Email address"
+3. Нажать на кнопку "Subscribe"</t>
+  </si>
+  <si>
+    <t>Email address: Alexeygusev55@gmail.com</t>
+  </si>
+  <si>
+    <t>1. Появляется сообщение об успешной подписки на рассылку
+2. В течение некоторого времени на email приходит письмо с подтверждением подписки</t>
+  </si>
+  <si>
+    <t>1. Сообщение об успешной подписки не появляется
+2. На почту не приходит сообщение с подтверждением подписки</t>
+  </si>
+  <si>
+    <t>Форма не работоспособна, требуется исправление блокирующих дефектов перед дальнейшим тестированием</t>
+  </si>
+  <si>
+    <t>FOOT - 002</t>
+  </si>
+  <si>
+    <t>Работоспособность валидации поля "Email address"</t>
+  </si>
+  <si>
+    <t>Проверить валидацию формы при пустом поле "Email address"</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма "Подпишитесь на рассылку лучших фотографий" отображается в футере
+2. Оставить поле "Email address" пустым
+3. Нажать на кнопку "Subscribe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address: </t>
+  </si>
+  <si>
+    <t>1. Форма не отправлена
+2. Под полем Email address появляется сообщение "Заполните это поле"</t>
+  </si>
+  <si>
+    <t>1. Форма не отправляется
+2. Под полем "Email address" появляется сообщение "Заполните это поле"</t>
+  </si>
+  <si>
+    <t>FOOT - 003</t>
+  </si>
+  <si>
+    <t>Работоспосбность ссылки "Телефон питомника"</t>
+  </si>
+  <si>
+    <t>Проверить, что при клике на ссылку открывается приложение для звонка</t>
+  </si>
+  <si>
+    <t>Футер / "Телефон питомника"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что ссылка "Телефон питомника" отображается в футере
+2. Навести курсор на ссылку и проверить отображаемый URL
+3. Нажать на ссылку "Телефон питомника"</t>
+  </si>
+  <si>
+    <t>1. Открывается телефонное приложение с номером питомника</t>
+  </si>
+  <si>
+    <t>1. Открывается почтовой клиент с адрессом  "test@qahacking.ru"</t>
+  </si>
+  <si>
+    <t>1. Проверить, какой href указан в коде (должен быть tel:+7... вместо mailto:)
+2. Уточнить, является ли ссылка действительно номером телефона или должна вести на email</t>
+  </si>
+  <si>
+    <t>FOOT - 004</t>
+  </si>
+  <si>
+    <t>Работоспособность формы "Спросите нас о собачках"</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность формы, при заполнении всех полей формы корректными данными</t>
+  </si>
+  <si>
+    <t>Футер / "Спросите нас о собачках"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма "Спросите нас о собачках" отображается в футере
+2. Заполнить поле "Full Name" корректными данными
+3. Заполнить поле "E-mail" корректными данными
+4. Заполнить поле "Mobile Phone" корректными данными
+5.Заполнить поле "Subject" корректыми данными
+6. Нажать на кнопку "Send"</t>
+  </si>
+  <si>
+    <t>Full Name: "Alex"
+E-mail: "Alexeygusev@gmail.com"
+Mobile Phone: "+79139636155"
+Subject: "Dog"</t>
+  </si>
+  <si>
+    <t>1. Форма отправлена
+2. Появляется сообщение "Запрос успешно отправлен"</t>
+  </si>
+  <si>
+    <t>1.Форма не отправлена
+2. В кнопке "Send" появляется бесконечный loader
+3. Сообщение не появляется</t>
+  </si>
+  <si>
+    <t>FOOT - 005</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность формы, при заполнении только поля "E-mail"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма "Спросите нас о собачках" отображается в футере
+2. Не заполнять поле "Full Name" 
+3. Заполнить поле "E-mail" корректными данными
+4. Не заполнять поле "Mobile Phone"
+5.Не заполнять поле "Subject"
+6. Нажать на кнопку "Send"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name: 
+E-mail: "Alexeygusev@gmail.com"
+Mobile Phone:
+Subject: </t>
+  </si>
+  <si>
+    <t>FOOT - 006</t>
+  </si>
+  <si>
+    <t>Работоспособность валидации полей формы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить валидацию формы: "Спросите нас о собачках" при пустых полях </t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма "Спросите нас о собачках" отображается в футере
+2. Не заполнять поле "Full Name" 
+3. Не заполнять поле "E-mail"
+4. Не заполнять поле "Mobile Phone"
+5.Не заполнять поле "Subject"
+6. Нажать на кнопку "Send"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name: 
+E-mail: 
+Mobile Phone:
+Subject: </t>
+  </si>
+  <si>
+    <t>1. Форма не отправлена
+2. Появляется сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>1. Форма не отправлена
+2. Под полем "E-mail" появляется сообщение об ошибке "Please type your e-mail address."</t>
+  </si>
+  <si>
+    <t>FOOT - 007</t>
+  </si>
+  <si>
+    <t>Корректное отображение кнопки "Send"</t>
+  </si>
+  <si>
+    <t>Проверить, что название кнопки отображается корректно во всех состояниях (обычное, наведение, нажатие, уход курсора)</t>
+  </si>
+  <si>
+    <t>1. Убедиться что форма "Спросите нас о собачках" отображается в футере
+2. Проверить отображение кнопки "Send" в следующих состояниях:
+- В обычном состояни
+- При наведение курсора
+- При нажатии 
+- При убирании курсора с кнопки</t>
+  </si>
+  <si>
+    <t>1. Текст кнопки отображается корректно во всех состояниях</t>
+  </si>
+  <si>
+    <t>1. В обычном состоянии текст кнопки не отображается
+2. При наведении курсора текст кнопки отображается корректно
+3. При нажатии текст кнопки отображается корректно
+4. При убирании курсора тест с кнопки не отобьражается</t>
+  </si>
+  <si>
+    <t>FOOT - 008</t>
+  </si>
+  <si>
     <t>Футер /</t>
   </si>
   <si>
-    <t>FOOT - 002</t>
-  </si>
-  <si>
-    <t>FOOT - 003</t>
-  </si>
-  <si>
-    <t>FOOT - 004</t>
-  </si>
-  <si>
-    <t>FOOT - 005</t>
+    <t>FOOT - 009</t>
+  </si>
+  <si>
+    <t>FOOT - 010</t>
+  </si>
+  <si>
+    <t>FOOT - 011</t>
+  </si>
+  <si>
+    <t>FOOT - 012</t>
+  </si>
+  <si>
+    <t>FOOT - 013</t>
+  </si>
+  <si>
+    <t>FOOT - 014</t>
   </si>
   <si>
     <t>MAIN - 001</t>
@@ -723,9 +931,6 @@
     <t>Корректное отображение названия кнопки "Отправить форму"</t>
   </si>
   <si>
-    <t>Проверить, что название кнопки отображается корректно во всех состояниях (обычное, наведение, нажатие, уход курсора)</t>
-  </si>
-  <si>
     <t>О нас / Форма бронирования питомца</t>
   </si>
   <si>
@@ -740,7 +945,13 @@
     <t>1. Текст кнопки корректно отображается во всех состояниях</t>
   </si>
   <si>
-    <t>1. При убирании курсора текст кнопки исчезает</t>
+    <t>1. В обычном состоянии текст кнопки не отображается
+2. При наведении курсора текст кнопки отображается
+3. При нажатии кнопки текст кнопки отображается
+4. При убирании курсора текст кнопки не отображается</t>
+  </si>
+  <si>
+    <t>Текст кнопки не отображается в обычном состоянии и при убирании курсора с кнопки</t>
   </si>
   <si>
     <t>ABUS - 003</t>
@@ -923,9 +1134,6 @@
 - Поле "Особые пожелания" – неактивно, невозможно ввести данные
 - Поле "Выберите город" – неактивно, невозможно выбрать город
 - Поле "Прописка" – не имеет ограничения на сворачивание и разворачивание</t>
-  </si>
-  <si>
-    <t>Форма не работоспособна, требуется исправление блокирующих дефектов перед дальнейшим тестированием</t>
   </si>
   <si>
     <t>JESB - 001</t>
@@ -1801,13 +2009,19 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" ht="54.75" customHeight="1">
+    <row r="15" ht="102.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1815,55 +2029,85 @@
         <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
+      <c r="N15" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" ht="100.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="L16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" ht="20.25" customHeight="1">
+    <row r="17" ht="80.25" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1871,27 +2115,41 @@
         <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="L17" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
+      <c r="N17" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" ht="153.0" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1899,27 +2157,43 @@
         <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" ht="21.75" customHeight="1">
+      <c r="N18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" ht="165.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1927,62 +2201,104 @@
         <v>19</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+    <row r="20" ht="123.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+    <row r="21" ht="121.5" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>23</v>
@@ -1990,7 +2306,9 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2000,7 +2318,9 @@
       <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2014,7 +2334,9 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2024,7 +2346,9 @@
       <c r="F23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2038,7 +2362,9 @@
       <c r="N23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2048,7 +2374,9 @@
       <c r="F24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2062,7 +2390,9 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2072,7 +2402,9 @@
       <c r="F25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2086,7 +2418,9 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2096,7 +2430,9 @@
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -2110,7 +2446,9 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2120,7 +2458,9 @@
       <c r="F27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2134,7 +2474,9 @@
       <c r="N27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2144,7 +2486,9 @@
       <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2175,16 +2519,16 @@
     </row>
     <row r="30" ht="71.25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>18</v>
@@ -2193,10 +2537,10 @@
         <v>19</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="4" t="s">
@@ -2215,16 +2559,16 @@
     </row>
     <row r="31" ht="69.0" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -2233,17 +2577,17 @@
         <v>19</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="4" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>23</v>
@@ -2252,21 +2596,21 @@
         <v>79</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" ht="70.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>18</v>
@@ -2275,17 +2619,17 @@
         <v>19</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="4" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>23</v>
@@ -2294,21 +2638,21 @@
         <v>71</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" ht="65.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>18</v>
@@ -2317,17 +2661,17 @@
         <v>19</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="4" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>23</v>
@@ -2336,21 +2680,21 @@
         <v>79</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" ht="63.0" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>18</v>
@@ -2359,17 +2703,17 @@
         <v>19</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="4" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>23</v>
@@ -2378,21 +2722,21 @@
         <v>79</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" ht="56.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>18</v>
@@ -2401,17 +2745,17 @@
         <v>19</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="4" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>23</v>
@@ -2423,16 +2767,16 @@
     </row>
     <row r="36" ht="61.5" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>18</v>
@@ -2441,17 +2785,17 @@
         <v>19</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="4" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>23</v>
@@ -2460,21 +2804,21 @@
         <v>79</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" ht="57.0" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>18</v>
@@ -2483,17 +2827,17 @@
         <v>19</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="4" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>23</v>
@@ -2502,21 +2846,21 @@
         <v>79</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" ht="57.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>18</v>
@@ -2525,17 +2869,17 @@
         <v>19</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="4" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>23</v>
@@ -2544,21 +2888,21 @@
         <v>24</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" ht="65.25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>18</v>
@@ -2567,17 +2911,17 @@
         <v>19</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="4" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>23</v>
@@ -2589,16 +2933,16 @@
     </row>
     <row r="40" ht="51.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>18</v>
@@ -2607,17 +2951,17 @@
         <v>19</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="4" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>23</v>
@@ -2629,16 +2973,16 @@
     </row>
     <row r="41" ht="72.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>18</v>
@@ -2647,17 +2991,17 @@
         <v>19</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="4" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>23</v>
@@ -2669,16 +3013,16 @@
     </row>
     <row r="42" ht="96.0" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>18</v>
@@ -2687,17 +3031,17 @@
         <v>19</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>23</v>
@@ -2709,16 +3053,16 @@
     </row>
     <row r="43" ht="92.25" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>18</v>
@@ -2727,17 +3071,17 @@
         <v>19</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="4" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>23</v>
@@ -2749,16 +3093,16 @@
     </row>
     <row r="44" ht="169.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>18</v>
@@ -2767,17 +3111,17 @@
         <v>19</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>23</v>
@@ -2789,35 +3133,35 @@
     </row>
     <row r="45" ht="114.0" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="4" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>23</v>
@@ -2829,16 +3173,16 @@
     </row>
     <row r="46" ht="115.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>18</v>
@@ -2847,17 +3191,17 @@
         <v>19</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="4" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>23</v>
@@ -2869,35 +3213,35 @@
     </row>
     <row r="47" ht="72.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="4" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>23</v>
@@ -2925,16 +3269,16 @@
     </row>
     <row r="49" ht="60.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>18</v>
@@ -2943,17 +3287,17 @@
         <v>19</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="4" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>23</v>
@@ -2965,16 +3309,16 @@
     </row>
     <row r="50" ht="114.0" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>18</v>
@@ -2983,17 +3327,17 @@
         <v>19</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="4" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>23</v>
@@ -3001,20 +3345,22 @@
       <c r="M50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N50" s="5"/>
+      <c r="N50" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="51" ht="165.0" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>18</v>
@@ -3023,19 +3369,19 @@
         <v>19</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>23</v>
@@ -3044,21 +3390,21 @@
         <v>71</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" ht="83.25" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>18</v>
@@ -3067,17 +3413,17 @@
         <v>19</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="4" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>23</v>
@@ -3089,16 +3435,16 @@
     </row>
     <row r="53" ht="132.0" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>18</v>
@@ -3107,17 +3453,17 @@
         <v>19</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="4" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>23</v>
@@ -3126,21 +3472,21 @@
         <v>71</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" ht="255.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>18</v>
@@ -3149,17 +3495,17 @@
         <v>19</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="4" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>23</v>
@@ -3171,16 +3517,16 @@
     </row>
     <row r="55" ht="154.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>18</v>
@@ -3189,17 +3535,17 @@
         <v>19</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="4" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>23</v>
@@ -3211,16 +3557,16 @@
     </row>
     <row r="56" ht="312.0" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>18</v>
@@ -3229,19 +3575,19 @@
         <v>19</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>23</v>
@@ -3250,7 +3596,7 @@
         <v>71</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" ht="18.0" customHeight="1">
@@ -3271,7 +3617,7 @@
     </row>
     <row r="58" ht="31.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3283,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
